--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2322497.238694735</v>
+        <v>-2323310.685906623</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954293</v>
+        <v>2927877.345954296</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842873</v>
+        <v>17.60578514572143</v>
       </c>
       <c r="C11" t="n">
-        <v>289.117288741969</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.407037692238</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H11" t="n">
-        <v>234.9781829577619</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241321</v>
+        <v>61.32070768241304</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545178</v>
+        <v>84.08218037545161</v>
       </c>
       <c r="T11" t="n">
-        <v>58.67005888160488</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244664</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024233</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351699</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313687</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898437</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438485</v>
+        <v>78.92267750438467</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196324</v>
+        <v>62.54404190196306</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774269</v>
+        <v>61.4917917577425</v>
       </c>
       <c r="F13" t="n">
-        <v>61.958716085929</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033089</v>
+        <v>77.99174215033071</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366603</v>
+        <v>66.63306124366584</v>
       </c>
       <c r="I13" t="n">
-        <v>46.4960054222767</v>
+        <v>10.09614644222701</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271708</v>
+        <v>48.16276991271691</v>
       </c>
       <c r="S13" t="n">
-        <v>118.3637676193851</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T13" t="n">
-        <v>14.22650267868518</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V13" t="n">
-        <v>169.13081905861</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2977051292232</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250263</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.817674881094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F14" t="n">
-        <v>76.83497415286178</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H14" t="n">
         <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241306</v>
+        <v>61.32070768241304</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545163</v>
+        <v>84.0821803754516</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842795</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526289</v>
+        <v>57.43863305657204</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244663</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351698</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1695,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696245</v>
       </c>
       <c r="G15" t="n">
         <v>127.1529440554385</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869173</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898421</v>
+        <v>92.72268265898418</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438469</v>
+        <v>78.92267750438467</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196308</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592884</v>
+        <v>61.95871608592881</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.99174215033071</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366588</v>
+        <v>33.62973533897651</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227653</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271693</v>
+        <v>48.16276991271691</v>
       </c>
       <c r="S16" t="n">
-        <v>118.363767619385</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>143.7102985972436</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V16" t="n">
         <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2977051292231</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250262</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1844,13 @@
         <v>224.1761802728465</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D17" t="n">
         <v>203.1688012750562</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F17" t="n">
         <v>244.0827549329389</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864010991</v>
+        <v>7.152388864011025</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283883</v>
+        <v>53.82993817283886</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118829</v>
+        <v>86.36645694118833</v>
       </c>
       <c r="V17" t="n">
         <v>167.6825575130256</v>
@@ -1907,7 +1907,7 @@
         <v>192.9826569909825</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237314</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y17" t="n">
         <v>223.6795130199279</v>
@@ -1929,7 +1929,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>145.5577298436976</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -1971,7 +1971,7 @@
         <v>41.28834215945685</v>
       </c>
       <c r="S18" t="n">
-        <v>145.9169861849578</v>
+        <v>145.9169861849574</v>
       </c>
       <c r="T18" t="n">
         <v>185.6363186866066</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754357</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944053</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890091</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794432</v>
+        <v>46.44008043012186</v>
       </c>
       <c r="T19" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>248.1629802938276</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W19" t="n">
         <v>117.3679136177824</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965322</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>224.1761802728465</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D20" t="n">
         <v>203.1688012750562</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F20" t="n">
         <v>244.0827549329389</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864010991</v>
+        <v>7.152388864011025</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283883</v>
+        <v>53.82993817283886</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118829</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V20" t="n">
         <v>167.6825575130256</v>
@@ -2144,7 +2144,7 @@
         <v>192.9826569909825</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
         <v>223.6795130199279</v>
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1529440554385</v>
+        <v>127.1529440554386</v>
       </c>
       <c r="H21" t="n">
         <v>96.15438866313485</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945722</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754357</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944053</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.949157629878416</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440138</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>137.1599022512687</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794432</v>
+        <v>41.43397610794435</v>
       </c>
       <c r="T22" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W22" t="n">
         <v>117.3679136177824</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965322</v>
+        <v>74.35669835548305</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864010987</v>
+        <v>7.152388864010996</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283884</v>
+        <v>53.82993817283883</v>
       </c>
       <c r="U23" t="n">
         <v>86.36645694118829</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>5.006104322177777</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1.061950638890091</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794432</v>
+        <v>61.90279109377432</v>
       </c>
       <c r="T25" t="n">
         <v>63.887621359171</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
@@ -2728,10 +2728,10 @@
         <v>64.48972323292627</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626141</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487207</v>
+        <v>32.99398650487206</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S28" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U28" t="n">
         <v>181.8060034967287</v>
@@ -2798,19 +2798,19 @@
         <v>266.5965738690924</v>
       </c>
       <c r="E29" t="n">
-        <v>288.338711438998</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F29" t="n">
         <v>307.5105275269751</v>
       </c>
       <c r="G29" t="n">
-        <v>308.9050187748334</v>
+        <v>308.9050187748333</v>
       </c>
       <c r="H29" t="n">
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.8186887650086</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804717</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157976</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698024</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455863</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033808</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852439</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292628</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H31" t="n">
         <v>53.13104232626139</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487208</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531247</v>
+        <v>34.66075099531245</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U31" t="n">
         <v>181.8060034967287</v>
@@ -3029,25 +3029,25 @@
         <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245645</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
         <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.338711438998</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F32" t="n">
         <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
-        <v>308.9050187748334</v>
+        <v>308.9050187748333</v>
       </c>
       <c r="H32" t="n">
         <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500863</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.5801614580472</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2577107668751</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V32" t="n">
         <v>231.1103301070618</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157978</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698027</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455866</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033811</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852441</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292631</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626144</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I34" t="n">
-        <v>32.9939865048721</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.6607509953125</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S34" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U34" t="n">
         <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412054</v>
+        <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
         <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076218</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
         <v>117.3156559636894</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C35" t="n">
         <v>225.5276651076469</v>
       </c>
       <c r="D35" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E35" t="n">
         <v>238.2511067220804</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112965</v>
+        <v>20.49255674112962</v>
       </c>
       <c r="T35" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W35" t="n">
         <v>206.3228248681012</v>
@@ -3332,7 +3332,7 @@
         <v>225.6230831008478</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466223</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D37" t="n">
-        <v>19.51683636612825</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343882</v>
+        <v>3.043437609343856</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>19.51683636612819</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506298</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628962</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V37" t="n">
         <v>105.5411954242878</v>
@@ -3487,10 +3487,10 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X37" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C38" t="n">
         <v>225.5276651076469</v>
       </c>
       <c r="D38" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E38" t="n">
         <v>238.2511067220804</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112965</v>
+        <v>20.49255674112962</v>
       </c>
       <c r="T38" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V38" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W38" t="n">
         <v>206.3228248681012</v>
@@ -3569,7 +3569,7 @@
         <v>225.6230831008478</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466223</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C40" t="n">
-        <v>16.9350467317895</v>
+        <v>16.93504673178952</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343882</v>
+        <v>3.043437609343856</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440137</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506298</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628962</v>
       </c>
       <c r="U40" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V40" t="n">
         <v>105.5411954242878</v>
@@ -3724,10 +3724,10 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X40" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C41" t="n">
         <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E41" t="n">
         <v>238.2511067220804</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112965</v>
+        <v>20.49255674112962</v>
       </c>
       <c r="T41" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W41" t="n">
         <v>206.3228248681012</v>
@@ -3806,7 +3806,7 @@
         <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466223</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343882</v>
+        <v>3.043437609343856</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440137</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.37613684678981</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628962</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V43" t="n">
         <v>105.5411954242878</v>
       </c>
       <c r="W43" t="n">
-        <v>130.7080814949011</v>
+        <v>132.3100743566279</v>
       </c>
       <c r="X43" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5163481499653</v>
+        <v>237.5163481499652</v>
       </c>
       <c r="C44" t="n">
         <v>225.527665107647</v>
       </c>
       <c r="D44" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220806</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G44" t="n">
         <v>258.8174140579159</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112979</v>
+        <v>20.4925567411297</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995764</v>
+        <v>67.17010604995755</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830709</v>
+        <v>99.70662481830701</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X44" t="n">
         <v>225.6230831008479</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.0196808970467</v>
+        <v>237.0196808970466</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466237</v>
+        <v>29.13305902466229</v>
       </c>
       <c r="C46" t="n">
-        <v>34.84989023618928</v>
+        <v>15.33305387006277</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600889</v>
+        <v>14.40211851600881</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609344025</v>
+        <v>3.043437609343941</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.601992861725742</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506313</v>
+        <v>54.77414398506304</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628979</v>
+        <v>77.22778923628971</v>
       </c>
       <c r="U46" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V46" t="n">
-        <v>105.541195424288</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949012</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070434</v>
+        <v>76.35318349070425</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677203</v>
+        <v>67.22805124677194</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>967.6224669872987</v>
+        <v>1555.439965111439</v>
       </c>
       <c r="C11" t="n">
-        <v>675.5848015913703</v>
+        <v>1263.402299715511</v>
       </c>
       <c r="D11" t="n">
-        <v>675.5848015913703</v>
+        <v>980.4744282139991</v>
       </c>
       <c r="E11" t="n">
-        <v>675.5848015913703</v>
+        <v>675.5848015913705</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913703</v>
+        <v>675.5848015913705</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547669</v>
+        <v>349.9211271547667</v>
       </c>
       <c r="H11" t="n">
-        <v>112.5694271974315</v>
+        <v>112.5694271974317</v>
       </c>
       <c r="I11" t="n">
         <v>50.62931842731714</v>
@@ -5042,10 +5042,10 @@
         <v>167.8985774144699</v>
       </c>
       <c r="K11" t="n">
-        <v>475.8880155938954</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L11" t="n">
-        <v>907.9461548436964</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M11" t="n">
         <v>1394.843741810911</v>
@@ -5054,10 +5054,10 @@
         <v>1868.349012376772</v>
       </c>
       <c r="O11" t="n">
-        <v>2226.607036788429</v>
+        <v>2263.223623021737</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5069,22 +5069,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2387.271740298122</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U11" t="n">
-        <v>2387.271740298122</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="V11" t="n">
-        <v>2140.188559465328</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="W11" t="n">
-        <v>1867.549722594194</v>
+        <v>1876.869348623651</v>
       </c>
       <c r="X11" t="n">
-        <v>1575.415675386951</v>
+        <v>1876.869348623651</v>
       </c>
       <c r="Y11" t="n">
-        <v>1271.769913234054</v>
+        <v>1573.223586470754</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8133128779672</v>
+        <v>916.8133128779676</v>
       </c>
       <c r="C12" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189225</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091347</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2429931660054</v>
+        <v>469.2429931660058</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158802</v>
       </c>
       <c r="G12" t="n">
         <v>206.1118778881641</v>
@@ -5118,37 +5118,37 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J12" t="n">
-        <v>50.62931842731714</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K12" t="n">
-        <v>326.203808759672</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L12" t="n">
-        <v>753.9911953756168</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M12" t="n">
-        <v>1129.281940533323</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.772304204092</v>
+        <v>1984.042850779651</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.873370568727</v>
+        <v>1984.042850779651</v>
       </c>
       <c r="P12" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S12" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U12" t="n">
         <v>1936.382561450211</v>
@@ -5160,10 +5160,10 @@
         <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>511.273799302361</v>
+        <v>411.9217032761189</v>
       </c>
       <c r="C13" t="n">
-        <v>431.5539230353056</v>
+        <v>332.2018270090637</v>
       </c>
       <c r="D13" t="n">
-        <v>368.3781231343326</v>
+        <v>269.0260271080909</v>
       </c>
       <c r="E13" t="n">
-        <v>306.2652021669157</v>
+        <v>206.9131061406742</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6806404639572</v>
+        <v>206.9131061406742</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383704</v>
+        <v>128.1335686150877</v>
       </c>
       <c r="H13" t="n">
-        <v>97.5949804700209</v>
+        <v>60.82744614673836</v>
       </c>
       <c r="I13" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413155</v>
+        <v>96.79005415413175</v>
       </c>
       <c r="K13" t="n">
-        <v>246.2990519958639</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405356</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M13" t="n">
-        <v>714.190455344774</v>
+        <v>714.1904553447747</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068806</v>
+        <v>957.3332466068814</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P13" t="n">
-        <v>1357.73539301688</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.106858962689</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424591</v>
+        <v>1379.457596424593</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.898235192889</v>
+        <v>1259.898235192891</v>
       </c>
       <c r="T13" t="n">
-        <v>1245.528030466945</v>
+        <v>1117.658424212475</v>
       </c>
       <c r="U13" t="n">
-        <v>1245.528030466945</v>
+        <v>920.3775934911282</v>
       </c>
       <c r="V13" t="n">
-        <v>1074.688819296632</v>
+        <v>749.5383823208153</v>
       </c>
       <c r="W13" t="n">
-        <v>878.4285110852951</v>
+        <v>553.2780741094789</v>
       </c>
       <c r="X13" t="n">
-        <v>737.0721402519351</v>
+        <v>411.9217032761189</v>
       </c>
       <c r="Y13" t="n">
-        <v>604.9330747154766</v>
+        <v>411.9217032761189</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1002.497749055097</v>
+        <v>1272.512093609927</v>
       </c>
       <c r="C14" t="n">
-        <v>710.4600836591692</v>
+        <v>980.4744282139986</v>
       </c>
       <c r="D14" t="n">
-        <v>427.5322121576571</v>
+        <v>980.4744282139986</v>
       </c>
       <c r="E14" t="n">
-        <v>427.5322121576571</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="F14" t="n">
-        <v>349.9211271547665</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547665</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="H14" t="n">
         <v>112.5694271974313</v>
       </c>
       <c r="I14" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J14" t="n">
         <v>167.8985774144699</v>
       </c>
       <c r="K14" t="n">
-        <v>475.8880155938954</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L14" t="n">
-        <v>719.2973161773715</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M14" t="n">
         <v>1206.194903144586</v>
@@ -5294,34 +5294,34 @@
         <v>2074.574784355413</v>
       </c>
       <c r="P14" t="n">
-        <v>2379.433668932841</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R14" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.534426037118</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="T14" t="n">
-        <v>2314.453891002492</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="U14" t="n">
-        <v>2149.508185494786</v>
+        <v>2388.515604767852</v>
       </c>
       <c r="V14" t="n">
-        <v>1902.425004661992</v>
+        <v>2141.432423935058</v>
       </c>
       <c r="W14" t="n">
-        <v>1902.425004661992</v>
+        <v>1868.793587063923</v>
       </c>
       <c r="X14" t="n">
-        <v>1610.29095745475</v>
+        <v>1576.659539856681</v>
       </c>
       <c r="Y14" t="n">
-        <v>1306.645195301852</v>
+        <v>1576.659539856681</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779671</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189218</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091339</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660051</v>
       </c>
       <c r="F15" t="n">
         <v>334.5491951158793</v>
@@ -5352,49 +5352,49 @@
         <v>108.986232773886</v>
       </c>
       <c r="I15" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J15" t="n">
-        <v>137.8463925088448</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K15" t="n">
-        <v>413.4208828411997</v>
+        <v>144.1503362656397</v>
       </c>
       <c r="L15" t="n">
-        <v>841.2082694571444</v>
+        <v>571.9377228815845</v>
       </c>
       <c r="M15" t="n">
-        <v>935.0807557888476</v>
+        <v>1129.281940533323</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.571119459616</v>
+        <v>1714.772304204091</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.672185824251</v>
+        <v>2174.873370568726</v>
       </c>
       <c r="P15" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="Q15" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R15" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T15" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X15" t="n">
         <v>1268.754082009649</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.3813408093566</v>
+        <v>305.6827235582471</v>
       </c>
       <c r="C16" t="n">
-        <v>290.6614645423014</v>
+        <v>225.9628472911918</v>
       </c>
       <c r="D16" t="n">
-        <v>227.4856646413285</v>
+        <v>225.9628472911918</v>
       </c>
       <c r="E16" t="n">
-        <v>227.4856646413285</v>
+        <v>225.9628472911918</v>
       </c>
       <c r="F16" t="n">
-        <v>164.9011029383701</v>
+        <v>163.3782855882334</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9011029383701</v>
+        <v>84.59874806264693</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002072</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413174</v>
+        <v>96.79005415413175</v>
       </c>
       <c r="K16" t="n">
         <v>246.2990519958642</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405361</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M16" t="n">
         <v>714.1904553447746</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068812</v>
+        <v>957.3332466068813</v>
       </c>
       <c r="O16" t="n">
         <v>1177.722352077497</v>
@@ -5461,25 +5461,25 @@
         <v>1379.457596424592</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.89823519289</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212475</v>
+        <v>1237.217785444177</v>
       </c>
       <c r="U16" t="n">
-        <v>972.496506437481</v>
+        <v>1039.93695472283</v>
       </c>
       <c r="V16" t="n">
-        <v>801.6572952671681</v>
+        <v>869.0977435525169</v>
       </c>
       <c r="W16" t="n">
-        <v>605.3969870558317</v>
+        <v>672.8374353411806</v>
       </c>
       <c r="X16" t="n">
-        <v>464.040616222472</v>
+        <v>531.4810645078207</v>
       </c>
       <c r="Y16" t="n">
-        <v>464.040616222472</v>
+        <v>399.3419989713624</v>
       </c>
     </row>
     <row r="17">
@@ -5498,31 +5498,31 @@
         <v>931.9619764121846</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021223</v>
+        <v>704.7792099021224</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961231</v>
+        <v>458.2309725961235</v>
       </c>
       <c r="G17" t="n">
         <v>210.274158272086</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J17" t="n">
         <v>167.8985774144699</v>
       </c>
       <c r="K17" t="n">
-        <v>475.8880155938954</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L17" t="n">
-        <v>907.9461548436964</v>
+        <v>719.2973161773716</v>
       </c>
       <c r="M17" t="n">
-        <v>1394.843741810911</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N17" t="n">
         <v>1679.700173710447</v>
@@ -5531,16 +5531,16 @@
         <v>2074.574784355413</v>
       </c>
       <c r="P17" t="n">
-        <v>2379.433668932841</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q17" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R17" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149683</v>
       </c>
       <c r="T17" t="n">
         <v>2469.867611227624</v>
@@ -5549,10 +5549,10 @@
         <v>2382.628765832485</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112256</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X17" t="n">
         <v>1803.893281259012</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779671</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189218</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091339</v>
       </c>
       <c r="E18" t="n">
         <v>469.2429931660049</v>
@@ -5589,22 +5589,22 @@
         <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J18" t="n">
-        <v>137.8463925088448</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4208828411997</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L18" t="n">
-        <v>413.4208828411997</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M18" t="n">
-        <v>970.765100492938</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O18" t="n">
         <v>1980.672185824251</v>
@@ -5613,7 +5613,7 @@
         <v>2337.264736621381</v>
       </c>
       <c r="Q18" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R18" t="n">
         <v>2489.760525245193</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71501199482637</v>
+        <v>206.1956669690493</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70199584033742</v>
+        <v>204.1826508145603</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70199584033742</v>
+        <v>204.1826508145603</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70199584033742</v>
+        <v>204.1826508145603</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033742</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="G19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K19" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L19" t="n">
-        <v>248.2096550833889</v>
+        <v>248.2096550833888</v>
       </c>
       <c r="M19" t="n">
         <v>403.7082365724611</v>
@@ -5686,37 +5686,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O19" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748513</v>
       </c>
       <c r="P19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S19" t="n">
-        <v>741.0791900799334</v>
+        <v>736.0225190474307</v>
       </c>
       <c r="T19" t="n">
-        <v>676.5462392120838</v>
+        <v>671.4895681795812</v>
       </c>
       <c r="U19" t="n">
-        <v>556.9722686033035</v>
+        <v>551.9155975708009</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3025915388312</v>
+        <v>458.7832465130542</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7491434400611</v>
+        <v>340.2297984142841</v>
       </c>
       <c r="X19" t="n">
-        <v>124.0996327192676</v>
+        <v>276.5802876934906</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.66742729537543</v>
+        <v>222.1480822695984</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121859</v>
+        <v>931.9619764121855</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021235</v>
+        <v>704.7792099021228</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961245</v>
+        <v>458.230972596124</v>
       </c>
       <c r="G20" t="n">
         <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J20" t="n">
-        <v>50.62931842731713</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K20" t="n">
-        <v>358.6187566067426</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L20" t="n">
-        <v>719.2973161773715</v>
+        <v>719.2973161773716</v>
       </c>
       <c r="M20" t="n">
         <v>1206.194903144586</v>
@@ -5768,19 +5768,19 @@
         <v>2074.574784355413</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.433668932841</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q20" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R20" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S20" t="n">
         <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
         <v>2382.628765832485</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779671</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189218</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091339</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660051</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158795</v>
       </c>
       <c r="G21" t="n">
         <v>206.1118778881637</v>
@@ -5826,31 +5826,31 @@
         <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J21" t="n">
-        <v>137.8463925088448</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K21" t="n">
-        <v>413.4208828411997</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L21" t="n">
-        <v>841.2082694571444</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M21" t="n">
-        <v>935.0807557888476</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.571119459616</v>
+        <v>1714.772304204091</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.672185824251</v>
+        <v>2174.873370568726</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="Q21" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R21" t="n">
         <v>2489.760525245193</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.61118067259235</v>
+        <v>190.5767673087945</v>
       </c>
       <c r="C22" t="n">
-        <v>52.59816451810341</v>
+        <v>188.5637511543055</v>
       </c>
       <c r="D22" t="n">
-        <v>52.59816451810341</v>
+        <v>188.5637511543055</v>
       </c>
       <c r="E22" t="n">
-        <v>52.59816451810341</v>
+        <v>188.5637511543055</v>
       </c>
       <c r="F22" t="n">
-        <v>52.59816451810341</v>
+        <v>188.5637511543055</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731713</v>
+        <v>187.4910737412852</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731713</v>
+        <v>187.4910737412852</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K22" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L22" t="n">
-        <v>248.2096550833889</v>
+        <v>248.2096550833888</v>
       </c>
       <c r="M22" t="n">
         <v>403.7082365724611</v>
@@ -5923,37 +5923,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O22" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748513</v>
       </c>
       <c r="P22" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="Q22" t="n">
-        <v>764.8358896794717</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R22" t="n">
-        <v>626.2905338701094</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S22" t="n">
-        <v>584.4380327509737</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T22" t="n">
-        <v>519.9050818831241</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U22" t="n">
-        <v>400.3311112743438</v>
+        <v>556.9722686033034</v>
       </c>
       <c r="V22" t="n">
-        <v>307.1987602165972</v>
+        <v>463.8399175455568</v>
       </c>
       <c r="W22" t="n">
-        <v>188.645312117827</v>
+        <v>345.2864694467866</v>
       </c>
       <c r="X22" t="n">
-        <v>124.9958013970336</v>
+        <v>281.6369587259931</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.56359597314142</v>
+        <v>206.5291826093436</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.513793084492</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.18298780113</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121849</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021221</v>
+        <v>704.7792099021227</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2309725961234</v>
+        <v>458.2309725961238</v>
       </c>
       <c r="G23" t="n">
         <v>210.2741582720859</v>
@@ -5987,25 +5987,25 @@
         <v>50.62931842731712</v>
       </c>
       <c r="J23" t="n">
-        <v>50.62931842731712</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>358.6187566067426</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L23" t="n">
-        <v>790.6768958565435</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M23" t="n">
-        <v>1277.574482823758</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N23" t="n">
-        <v>1751.079753389619</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O23" t="n">
-        <v>2145.954364034585</v>
+        <v>2263.223623021737</v>
       </c>
       <c r="P23" t="n">
-        <v>2450.813248612012</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.465921365856</v>
@@ -6017,7 +6017,7 @@
         <v>2524.241286149683</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227623</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
         <v>2382.628765832484</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189217</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158792</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1118778881636</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H24" t="n">
         <v>108.986232773886</v>
@@ -6075,7 +6075,7 @@
         <v>841.2082694571443</v>
       </c>
       <c r="M24" t="n">
-        <v>935.0807557888471</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N24" t="n">
         <v>1520.571119459615</v>
@@ -6099,13 +6099,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X24" t="n">
         <v>1268.754082009649</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.2523380015521</v>
+        <v>190.5767673087944</v>
       </c>
       <c r="C25" t="n">
-        <v>209.2393218470631</v>
+        <v>188.5637511543055</v>
       </c>
       <c r="D25" t="n">
-        <v>209.2393218470631</v>
+        <v>188.5637511543055</v>
       </c>
       <c r="E25" t="n">
-        <v>204.1826508145603</v>
+        <v>188.5637511543055</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033741</v>
+        <v>188.5637511543055</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731712</v>
+        <v>187.4910737412852</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731712</v>
+        <v>187.4910737412852</v>
       </c>
       <c r="I25" t="n">
         <v>50.62931842731712</v>
@@ -6160,37 +6160,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O25" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748513</v>
       </c>
       <c r="P25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799334</v>
+        <v>720.4036193871757</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120838</v>
+        <v>655.8706685193262</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033035</v>
+        <v>536.2966979105458</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455569</v>
+        <v>443.1643468527992</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467868</v>
+        <v>324.6108987540291</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259933</v>
+        <v>260.9613880332356</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.2047533021011</v>
+        <v>206.5291826093435</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967891</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250971</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353659</v>
+        <v>341.9353438353665</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>596.8002826177371</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610935</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321546</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6300,7 +6300,7 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J27" t="n">
         <v>157.1374150831905</v>
@@ -6309,19 +6309,19 @@
         <v>432.7119054155455</v>
       </c>
       <c r="L27" t="n">
-        <v>857.1286270760902</v>
+        <v>860.4992920314902</v>
       </c>
       <c r="M27" t="n">
-        <v>1414.472844727828</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.963208398597</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O27" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.555759195726</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485936</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284115</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743119</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537684</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976832</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189698</v>
+        <v>156.9153196189695</v>
       </c>
       <c r="H28" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567079</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K28" t="n">
         <v>292.3240720266708</v>
@@ -6391,7 +6391,7 @@
         <v>529.9767315995731</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N28" t="n">
         <v>1043.459262822379</v>
@@ -6424,10 +6424,10 @@
         <v>761.3355041909074</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044209</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148357</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967892</v>
+        <v>964.5773097967893</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250971</v>
+        <v>653.9606153250974</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353664</v>
+        <v>341.9353438353667</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
@@ -6461,16 +6461,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>288.6637597322124</v>
+        <v>288.6637597322125</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550346</v>
+        <v>596.8002826177369</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610935</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321546</v>
       </c>
       <c r="N29" t="n">
         <v>2293.683758630804</v>
@@ -6500,7 +6500,7 @@
         <v>2921.529745166775</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X29" t="n">
         <v>2384.033666982144</v>
@@ -6549,7 +6549,7 @@
         <v>860.4992920314903</v>
       </c>
       <c r="M30" t="n">
-        <v>954.3717783631929</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N30" t="n">
         <v>1539.862142033961</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485937</v>
+        <v>435.0960012485936</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284116</v>
+        <v>369.0145279284115</v>
       </c>
       <c r="D31" t="n">
-        <v>319.477130974312</v>
+        <v>319.4771309743119</v>
       </c>
       <c r="E31" t="n">
         <v>271.0026129537684</v>
@@ -6619,16 +6619,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567076</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266708</v>
+        <v>292.3240720266705</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995732</v>
+        <v>529.976731599573</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320424</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N31" t="n">
         <v>1043.45926282238</v>
@@ -6652,19 +6652,19 @@
         <v>1284.800645453284</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.158217678811</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553709</v>
+        <v>943.9574094553707</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909076</v>
+        <v>761.3355041909075</v>
       </c>
       <c r="X31" t="n">
-        <v>633.617536304421</v>
+        <v>633.6175363044209</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148358</v>
+        <v>515.1168737148357</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6683,16 @@
         <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967883</v>
+        <v>964.5773097967888</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250959</v>
+        <v>653.9606153250968</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353652</v>
+        <v>341.9353438353662</v>
       </c>
       <c r="H32" t="n">
-        <v>118.222046824904</v>
+        <v>118.2220468249039</v>
       </c>
       <c r="I32" t="n">
         <v>69.92034100166293</v>
@@ -6701,28 +6701,28 @@
         <v>288.6637597322124</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1273576550345</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L32" t="n">
         <v>1231.659656648232</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.704328321547</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630805</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019167</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.365573339991</v>
+        <v>3297.692648377288</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516403</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="S32" t="n">
         <v>3424.723957701281</v>
@@ -6737,7 +6737,7 @@
         <v>2921.529745166774</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X32" t="n">
         <v>2384.033666982144</v>
@@ -6762,7 +6762,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E33" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F33" t="n">
         <v>353.8402176902251</v>
@@ -6783,19 +6783,19 @@
         <v>432.7119054155455</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314903</v>
+        <v>860.4992920314902</v>
       </c>
       <c r="M33" t="n">
         <v>1417.843509683229</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.963208398597</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O33" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.555759195726</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485936</v>
+        <v>435.0960012485937</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284114</v>
+        <v>369.0145279284116</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743118</v>
+        <v>319.477130974312</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537682</v>
+        <v>271.0026129537685</v>
       </c>
       <c r="F34" t="n">
-        <v>222.056454197683</v>
+        <v>222.0564541976833</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189695</v>
+        <v>156.9153196189699</v>
       </c>
       <c r="H34" t="n">
         <v>103.2476000974933</v>
@@ -6856,22 +6856,22 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4480754567079</v>
+        <v>129.4480754567084</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266708</v>
+        <v>292.3240720266713</v>
       </c>
       <c r="L34" t="n">
-        <v>529.976731599573</v>
+        <v>529.9767315995736</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320419</v>
+        <v>786.9494728320426</v>
       </c>
       <c r="N34" t="n">
         <v>1043.45926282238</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021227</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
         <v>1470.595406688841</v>
@@ -6880,10 +6880,10 @@
         <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771656</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486827</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
         <v>1284.800645453284</v>
@@ -6895,13 +6895,13 @@
         <v>943.9574094553709</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909076</v>
+        <v>761.3355041909077</v>
       </c>
       <c r="X34" t="n">
         <v>633.617536304421</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148357</v>
+        <v>515.1168737148358</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
         <v>1208.407549338417</v>
       </c>
       <c r="D35" t="n">
-        <v>989.711620901877</v>
+        <v>989.7116209018767</v>
       </c>
       <c r="E35" t="n">
-        <v>749.05393734422</v>
+        <v>749.0539373442198</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906264</v>
+        <v>489.0307829906261</v>
       </c>
       <c r="G35" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J35" t="n">
         <v>171.7485537137827</v>
@@ -6941,46 +6941,46 @@
         <v>479.7379918932083</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430092</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N35" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S35" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655339</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V35" t="n">
-        <v>2351.851591887516</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W35" t="n">
         <v>2143.444698081353</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J36" t="n">
         <v>141.6963688081575</v>
       </c>
       <c r="K36" t="n">
-        <v>141.6963688081575</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L36" t="n">
-        <v>381.5865144364212</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M36" t="n">
-        <v>938.9307320881595</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N36" t="n">
         <v>1524.421095758928</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.3029779201083</v>
+        <v>107.3029779201081</v>
       </c>
       <c r="C37" t="n">
-        <v>91.81504471802472</v>
+        <v>91.81504471802458</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062245</v>
+        <v>91.81504471802458</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062245</v>
+        <v>91.81504471802458</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062245</v>
+        <v>91.81504471802458</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000754</v>
+        <v>77.26745025740971</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662988</v>
+        <v>74.19327085403208</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662988</v>
+        <v>74.19327085403208</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K37" t="n">
-        <v>115.8811315531961</v>
+        <v>115.881131553196</v>
       </c>
       <c r="L37" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.558212871774</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187144</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741643</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S37" t="n">
-        <v>731.4542493316517</v>
+        <v>731.4542493316513</v>
       </c>
       <c r="T37" t="n">
-        <v>653.4463814162076</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U37" t="n">
-        <v>520.3974937598327</v>
+        <v>520.3974937598324</v>
       </c>
       <c r="V37" t="n">
-        <v>413.7902256544915</v>
+        <v>413.7902256544912</v>
       </c>
       <c r="W37" t="n">
-        <v>281.7618605081268</v>
+        <v>281.7618605081265</v>
       </c>
       <c r="X37" t="n">
-        <v>204.6374327397387</v>
+        <v>204.6374327397385</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.7303102682519</v>
+        <v>136.7303102682517</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D38" t="n">
-        <v>989.711620901877</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E38" t="n">
-        <v>749.05393734422</v>
+        <v>749.053937344219</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906264</v>
+        <v>489.0307829906253</v>
       </c>
       <c r="G38" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137822</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932077</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430087</v>
+        <v>911.7961311430089</v>
       </c>
       <c r="M38" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N38" t="n">
-        <v>1872.198988676084</v>
+        <v>1872.198988676085</v>
       </c>
       <c r="O38" t="n">
         <v>2267.07359932105</v>
@@ -7193,31 +7193,31 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655339</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V38" t="n">
-        <v>2351.851591887516</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J39" t="n">
         <v>141.6963688081575</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.20717640051083</v>
+        <v>89.20717640051078</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000754</v>
+        <v>57.5534741300075</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K40" t="n">
-        <v>115.8811315531961</v>
+        <v>115.881131553196</v>
       </c>
       <c r="L40" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.558212871774</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187144</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O40" t="n">
-        <v>694.8757875741643</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q40" t="n">
-        <v>768.6858659787846</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="R40" t="n">
-        <v>768.6858659787846</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="S40" t="n">
-        <v>713.3584478120544</v>
+        <v>713.358447812054</v>
       </c>
       <c r="T40" t="n">
-        <v>635.3505798966103</v>
+        <v>635.3505798966099</v>
       </c>
       <c r="U40" t="n">
-        <v>502.3016922402354</v>
+        <v>502.3016922402351</v>
       </c>
       <c r="V40" t="n">
-        <v>395.6944241348941</v>
+        <v>395.6944241348939</v>
       </c>
       <c r="W40" t="n">
-        <v>263.6660589885294</v>
+        <v>263.6660589885292</v>
       </c>
       <c r="X40" t="n">
-        <v>186.5416312201413</v>
+        <v>186.5416312201411</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.6345087486545</v>
+        <v>118.6345087486544</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7388,40 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018766</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442195</v>
+        <v>749.053937344219</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906261</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G41" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137822</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932077</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430087</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N41" t="n">
-        <v>1872.198988676084</v>
+        <v>1872.198988676085</v>
       </c>
       <c r="O41" t="n">
         <v>2267.07359932105</v>
@@ -7430,28 +7430,28 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T41" t="n">
         <v>2635.416592098072</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V41" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y41" t="n">
         <v>1676.128774851156</v>
@@ -7485,7 +7485,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J42" t="n">
         <v>141.6963688081575</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.589001792706</v>
+        <v>87.5890017927059</v>
       </c>
       <c r="C43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="D43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="E43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="F43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000754</v>
+        <v>57.5534741300075</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K43" t="n">
-        <v>115.8811315531961</v>
+        <v>115.881131553196</v>
       </c>
       <c r="L43" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.558212871774</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187144</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O43" t="n">
-        <v>694.8757875741643</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q43" t="n">
-        <v>768.6858659787846</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="R43" t="n">
-        <v>768.6858659787846</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="S43" t="n">
-        <v>711.7402732042494</v>
+        <v>713.358447812054</v>
       </c>
       <c r="T43" t="n">
-        <v>633.7324052888054</v>
+        <v>635.3505798966099</v>
       </c>
       <c r="U43" t="n">
-        <v>500.6835176324304</v>
+        <v>502.3016922402351</v>
       </c>
       <c r="V43" t="n">
-        <v>394.0762495270892</v>
+        <v>395.6944241348939</v>
       </c>
       <c r="W43" t="n">
-        <v>262.0478843807245</v>
+        <v>262.0478843807243</v>
       </c>
       <c r="X43" t="n">
-        <v>184.9234566123364</v>
+        <v>184.9234566123363</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.0163341408497</v>
+        <v>117.0163341408495</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C44" t="n">
         <v>1208.407549338416</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018754</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442182</v>
+        <v>749.0539373442189</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906249</v>
+        <v>489.0307829906253</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189935</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J44" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932082</v>
+        <v>479.7379918932083</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430091</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M44" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N44" t="n">
         <v>1872.198988676085</v>
@@ -7667,10 +7667,10 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R44" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S44" t="n">
         <v>2703.265184067726</v>
@@ -7691,7 +7691,7 @@
         <v>1915.542593939082</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J45" t="n">
         <v>141.6963688081575</v>
@@ -7734,7 +7734,7 @@
         <v>845.0582457564572</v>
       </c>
       <c r="M45" t="n">
-        <v>938.9307320881595</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N45" t="n">
         <v>1524.421095758928</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.3029779201069</v>
+        <v>87.58900179270616</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062255</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000769</v>
+        <v>57.55347413000759</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K46" t="n">
         <v>115.881131553196</v>
@@ -7813,43 +7813,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O46" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983818</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983818</v>
+        <v>767.0676913709805</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316513</v>
+        <v>711.7402732042501</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162071</v>
+        <v>633.7324052888059</v>
       </c>
       <c r="U46" t="n">
-        <v>520.3974937598321</v>
+        <v>500.6835176324309</v>
       </c>
       <c r="V46" t="n">
-        <v>413.7902256544907</v>
+        <v>394.0762495270897</v>
       </c>
       <c r="W46" t="n">
-        <v>281.7618605081258</v>
+        <v>262.0478843807248</v>
       </c>
       <c r="X46" t="n">
-        <v>204.6374327397376</v>
+        <v>184.9234566123367</v>
       </c>
       <c r="Y46" t="n">
-        <v>136.7303102682507</v>
+        <v>117.0163341408499</v>
       </c>
     </row>
   </sheetData>
@@ -8702,13 +8702,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>458.0537849008535</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>227.7839381316912</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,19 +8775,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>421.524186416382</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>47.27246317627819</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>410.5968871557578</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8930,10 +8930,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>352.4051964243484</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.3675935406823</v>
+        <v>393.8132110494453</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9006,13 +9006,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>71.81435702992808</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2633189153684</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9167,13 +9167,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>352.4051964243487</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>377.996619244342</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9246,13 +9246,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>49.98397756525981</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>587.1002940162252</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>470.8589933810684</v>
+        <v>352.4051964243487</v>
       </c>
       <c r="M20" t="n">
         <v>584.3675935406823</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>137.2633189153684</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>351.1546355601955</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>381.3518698822114</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.9089023233586</v>
+        <v>122.4415561073551</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>137.2633189153681</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9957,16 +9957,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>478.6877368183353</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O27" t="n">
-        <v>47.27246317627817</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>137.2633189153678</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,10 +10437,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>619.7403745704578</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O33" t="n">
-        <v>47.27246317627814</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10665,16 +10665,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>65.44673707356944</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>292.2972559776474</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236954</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>154.9918226869873</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236954</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155857</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>154.9918226869873</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>137.2633189153676</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>283.5001866385657</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.098592786497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564026</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443797</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>72.08967080267476</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>163.2962484526291</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>92.72268265898418</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.95871608592881</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>36.39985898004949</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>126.5909101919266</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141333</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564024</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>244.1775722915178</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922378</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>105.8576153960569</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.54404190196306</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774253</v>
+        <v>61.4917917577425</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033074</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>33.00332590468933</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.4960054222765</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>51.59772381688956</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-2.245315045001917e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1199460.826211135</v>
+        <v>1199460.826211136</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153175.3263014608</v>
+        <v>153175.3263014609</v>
       </c>
       <c r="C2" t="n">
         <v>153175.3263014608</v>
       </c>
       <c r="D2" t="n">
-        <v>153175.3263014609</v>
+        <v>153175.3263014608</v>
       </c>
       <c r="E2" t="n">
-        <v>133857.3596239536</v>
+        <v>133857.3596239534</v>
       </c>
       <c r="F2" t="n">
-        <v>133857.3596239534</v>
+        <v>133857.3596239535</v>
       </c>
       <c r="G2" t="n">
-        <v>153524.8120988363</v>
+        <v>153524.8120988362</v>
       </c>
       <c r="H2" t="n">
         <v>153524.8120988362</v>
@@ -26335,10 +26335,10 @@
         <v>153524.8120988362</v>
       </c>
       <c r="J2" t="n">
+        <v>153524.8120988362</v>
+      </c>
+      <c r="K2" t="n">
         <v>153524.8120988363</v>
-      </c>
-      <c r="K2" t="n">
-        <v>153524.8120988364</v>
       </c>
       <c r="L2" t="n">
         <v>153524.8120988362</v>
@@ -26347,7 +26347,7 @@
         <v>153524.8120988364</v>
       </c>
       <c r="N2" t="n">
-        <v>153524.8120988365</v>
+        <v>153524.8120988364</v>
       </c>
       <c r="O2" t="n">
         <v>153524.8120988364</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149714</v>
+        <v>367830.3395149715</v>
       </c>
       <c r="F3" t="n">
-        <v>1.250555214937776e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915252</v>
+        <v>61543.83320915246</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613906</v>
+        <v>83547.74167613924</v>
       </c>
       <c r="K3" t="n">
-        <v>1.029028291148799e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915249</v>
+        <v>61543.83320915248</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415066</v>
+        <v>149683.3109415065</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561239</v>
+        <v>20455.48779561253</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>401607.4064143078</v>
       </c>
       <c r="E4" t="n">
-        <v>255024.1601164461</v>
+        <v>255024.1601164463</v>
       </c>
       <c r="F4" t="n">
-        <v>255024.1601164462</v>
+        <v>255024.1601164463</v>
       </c>
       <c r="G4" t="n">
-        <v>310950.7206745581</v>
+        <v>310950.7206745582</v>
       </c>
       <c r="H4" t="n">
         <v>310950.7206745582</v>
@@ -26442,7 +26442,7 @@
         <v>309193.0084127064</v>
       </c>
       <c r="K4" t="n">
-        <v>309193.0084127063</v>
+        <v>309193.0084127064</v>
       </c>
       <c r="L4" t="n">
         <v>309193.0084127064</v>
@@ -26451,13 +26451,13 @@
         <v>308176.3362657602</v>
       </c>
       <c r="N4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="O4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="P4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48881.83299975545</v>
+        <v>48881.83299975546</v>
       </c>
       <c r="F5" t="n">
         <v>48881.83299975545</v>
       </c>
       <c r="G5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="H5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="I5" t="n">
         <v>55349.24364233074</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
         <v>64678.11138462555</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462553</v>
       </c>
       <c r="M5" t="n">
         <v>57153.73105654695</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-282059.680112847</v>
+        <v>-282064.0486853141</v>
       </c>
       <c r="C6" t="n">
-        <v>-282059.6801128469</v>
+        <v>-282064.0486853141</v>
       </c>
       <c r="D6" t="n">
-        <v>-282059.6801128469</v>
+        <v>-282064.0486853141</v>
       </c>
       <c r="E6" t="n">
-        <v>-537878.9730072193</v>
+        <v>-538124.8161631558</v>
       </c>
       <c r="F6" t="n">
-        <v>-170048.6334922483</v>
+        <v>-170294.4766481843</v>
       </c>
       <c r="G6" t="n">
-        <v>-274318.9854272051</v>
+        <v>-274318.9854272052</v>
       </c>
       <c r="H6" t="n">
         <v>-212775.1522180527</v>
@@ -26543,25 +26543,25 @@
         <v>-212775.1522180527</v>
       </c>
       <c r="J6" t="n">
-        <v>-303894.0493746347</v>
+        <v>-303894.049374635</v>
       </c>
       <c r="K6" t="n">
         <v>-220346.3076984956</v>
       </c>
       <c r="L6" t="n">
-        <v>-281890.1409076482</v>
+        <v>-281890.1409076481</v>
       </c>
       <c r="M6" t="n">
         <v>-361488.5661649774</v>
       </c>
       <c r="N6" t="n">
-        <v>-211805.2552234706</v>
+        <v>-211805.2552234707</v>
       </c>
       <c r="O6" t="n">
-        <v>-232260.743019083</v>
+        <v>-232260.7430190833</v>
       </c>
       <c r="P6" t="n">
-        <v>-211805.2552234706</v>
+        <v>-211805.2552234707</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26713,7 +26713,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
         <v>152.5867559728738</v>
@@ -26725,7 +26725,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="3">
@@ -26765,16 +26765,16 @@
         <v>134.0206915791158</v>
       </c>
       <c r="L3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="M3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="O3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="P3" t="n">
         <v>134.0206915791157</v>
@@ -26799,37 +26799,37 @@
         <v>632.8664803414642</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.866480341464</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.866480341464</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.866480341464</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414639</v>
+        <v>632.866480341464</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
         <v>874.0042625207867</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207866</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F2" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144064</v>
+        <v>76.92979151144058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451548</v>
+        <v>25.56935974451567</v>
       </c>
       <c r="K2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144061</v>
+        <v>76.9297915114406</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691755</v>
+        <v>50.08760471691753</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451548</v>
+        <v>25.56935974451567</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793226</v>
+        <v>241.1377821793227</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K2" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144064</v>
+        <v>76.92979151144058</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451548</v>
+        <v>25.56935974451567</v>
       </c>
       <c r="P2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855165</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="15">
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S17" t="n">
         <v>165.9269238499924</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.9269238499924</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R19" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9269238499924</v>
+        <v>160.9208195278149</v>
       </c>
       <c r="T19" t="n">
         <v>165.9269238499924</v>
@@ -28779,7 +28779,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="V19" t="n">
-        <v>9.964971103333994</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W19" t="n">
         <v>165.9269238499924</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S20" t="n">
         <v>165.9269238499924</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28971,16 +28971,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.0397168590041</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H22" t="n">
         <v>155.6301935822177</v>
       </c>
       <c r="I22" t="n">
-        <v>135.4931377608283</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
         <v>165.9269238499924</v>
@@ -29025,7 +29025,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9269238499924</v>
+        <v>145.4581088641626</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S23" t="n">
         <v>165.9269238499924</v>
@@ -29202,10 +29202,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>145.4828197741166</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>165.9269238499924</v>
@@ -29214,10 +29214,10 @@
         <v>155.6301935822177</v>
       </c>
       <c r="I25" t="n">
-        <v>135.4931377608283</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499924</v>
+        <v>145.4581088641625</v>
       </c>
       <c r="T25" t="n">
         <v>165.9269238499924</v>
@@ -29299,10 +29299,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1485704102012164</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102022964</v>
       </c>
       <c r="M26" t="n">
         <v>102.4991512559563</v>
@@ -29475,7 +29475,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559569</v>
       </c>
       <c r="R28" t="n">
         <v>102.4991512559563</v>
@@ -29536,7 +29536,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102008754</v>
       </c>
       <c r="L29" t="n">
         <v>102.4991512559563</v>
@@ -29545,7 +29545,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1485704102012733</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O29" t="n">
         <v>102.4991512559563</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1485704102021828</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559562</v>
+        <v>0.1485704102016996</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559574</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591269</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S35" t="n">
         <v>152.5867559728738</v>
@@ -30147,7 +30147,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="D37" t="n">
-        <v>132.0243378743866</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30165,7 +30165,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.37012655389059</v>
+        <v>22.85329018776241</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440137</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512687</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591269</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S38" t="n">
         <v>152.5867559728738</v>
@@ -30402,7 +30402,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591269</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728738</v>
@@ -30639,7 +30639,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,7 +30666,7 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9847631111469</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T43" t="n">
         <v>152.5867559728738</v>
@@ -30678,7 +30678,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="W43" t="n">
-        <v>152.5867559728738</v>
+        <v>150.984763111147</v>
       </c>
       <c r="X43" t="n">
         <v>152.5867559728738</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.8879749259127</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C46" t="n">
-        <v>133.0699196067472</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440138</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.1599022512687</v>
+        <v>135.557909389543</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S11" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K12" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R12" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T12" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J13" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N13" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R13" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T13" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S14" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K15" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R15" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T15" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J16" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N16" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R16" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T16" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S17" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K18" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R18" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T18" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J19" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N19" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P19" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R19" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T19" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S20" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K21" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R21" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T21" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J22" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N22" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P22" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R22" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T22" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S23" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K24" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R24" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T24" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J25" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N25" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P25" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R25" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T25" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S26" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K27" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R27" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T27" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J28" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N28" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P28" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R28" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T28" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R32" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S32" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061811</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933952</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519921</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J34" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K34" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653596</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R35" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S35" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061811</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933952</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519921</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J37" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K37" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653596</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R37" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T37" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R38" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S38" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061811</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933952</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519921</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J40" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K40" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653596</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T40" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R41" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061811</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933952</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519921</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J43" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K43" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653596</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R43" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T43" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642841</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350225</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232708</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095669</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701285</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611583</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780465</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337918</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427433</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815605</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S44" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04310213196514271</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736405</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309722</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588798</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061808</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933949</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483294</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690134</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149609</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R45" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429762</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519918</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J46" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N46" t="n">
-        <v>36.9831196942829</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905069</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735336</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R46" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T46" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K11" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L11" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M11" t="n">
         <v>491.8157444113278</v>
@@ -35422,13 +35422,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O11" t="n">
-        <v>361.8767923350073</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P11" t="n">
-        <v>307.938267249927</v>
+        <v>117.3838847586908</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K12" t="n">
         <v>278.3580710427827</v>
@@ -35495,19 +35495,19 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>379.0815607653602</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O12" t="n">
-        <v>464.7485518834702</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>360.1944957546763</v>
+        <v>356.7897836785158</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466107</v>
+        <v>46.62700578466124</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391235</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703755</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
-        <v>246.0664065699378</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.5987790526329</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511273</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P13" t="n">
-        <v>181.831354484226</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415028</v>
+        <v>71.08228883415045</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K14" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L14" t="n">
-        <v>245.8679803873496</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M14" t="n">
-        <v>491.8157444113278</v>
+        <v>301.2613619200908</v>
       </c>
       <c r="N14" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P14" t="n">
         <v>307.938267249927</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K15" t="n">
-        <v>278.3580710427827</v>
+        <v>6.367619956358594</v>
       </c>
       <c r="L15" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
-        <v>94.82069326434663</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4044077482507</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834702</v>
@@ -35744,7 +35744,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466122</v>
+        <v>46.62700578466124</v>
       </c>
       <c r="K16" t="n">
         <v>151.0191897391237</v>
@@ -35817,13 +35817,13 @@
         <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P16" t="n">
         <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415043</v>
+        <v>71.08228883415045</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L17" t="n">
-        <v>436.4223628785868</v>
+        <v>245.8679803873499</v>
       </c>
       <c r="M17" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N17" t="n">
-        <v>287.733769595491</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P17" t="n">
         <v>307.938267249927</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K18" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M18" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>555.3596151178564</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M19" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N19" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O19" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K20" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L20" t="n">
-        <v>364.3217773440696</v>
+        <v>245.8679803873499</v>
       </c>
       <c r="M20" t="n">
         <v>491.8157444113278</v>
@@ -36133,7 +36133,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P20" t="n">
         <v>307.938267249927</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K21" t="n">
         <v>278.3580710427827</v>
@@ -36206,10 +36206,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M21" t="n">
-        <v>94.82069326434663</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4044077482507</v>
+        <v>319.4139566618266</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
@@ -36218,7 +36218,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M22" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N22" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O22" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L23" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M23" t="n">
         <v>491.8157444113278</v>
@@ -36370,13 +36370,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P23" t="n">
-        <v>307.938267249927</v>
+        <v>270.9518165092109</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.46734621600352</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K24" t="n">
         <v>278.3580710427827</v>
@@ -36443,10 +36443,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M24" t="n">
-        <v>94.82069326434627</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4044077482507</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834702</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M25" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N25" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O25" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
-        <v>311.2490130156815</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L26" t="n">
-        <v>538.921514134543</v>
+        <v>436.570933288789</v>
       </c>
       <c r="M26" t="n">
         <v>594.3148956672841</v>
@@ -36607,16 +36607,16 @@
         <v>580.7873033426847</v>
       </c>
       <c r="O26" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004358</v>
+        <v>46.61117633004356</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K27" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L27" t="n">
-        <v>428.7037592530755</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M27" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P27" t="n">
         <v>360.1944957546763</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206569</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155551</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K29" t="n">
-        <v>413.5995938614366</v>
+        <v>311.2490130156812</v>
       </c>
       <c r="L29" t="n">
         <v>538.921514134543</v>
       </c>
       <c r="M29" t="n">
-        <v>594.3148956672841</v>
+        <v>594.3148956672842</v>
       </c>
       <c r="N29" t="n">
-        <v>478.4367224969297</v>
+        <v>580.7873033426847</v>
       </c>
       <c r="O29" t="n">
         <v>501.3623943316791</v>
@@ -36853,7 +36853,7 @@
         <v>256.0670830064773</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004358</v>
+        <v>46.61117633004359</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M30" t="n">
-        <v>94.82069326434605</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834702</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206568</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -36996,7 +36996,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5684254873424</v>
+        <v>259.5684254873425</v>
       </c>
       <c r="N31" t="n">
         <v>259.1007979700375</v>
@@ -37008,7 +37008,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155489</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126762</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5995938614365</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L32" t="n">
         <v>538.921514134543</v>
       </c>
       <c r="M32" t="n">
-        <v>491.96431482153</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N32" t="n">
         <v>580.7873033426847</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P32" t="n">
         <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064772</v>
+        <v>153.7165021607227</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004355</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K33" t="n">
         <v>278.3580710427827</v>
@@ -37157,13 +37157,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>587.9996956720889</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P33" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q33" t="n">
         <v>196.1628128732074</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206565</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565281</v>
+        <v>164.5212086565282</v>
       </c>
       <c r="L34" t="n">
         <v>240.0531914877801</v>
@@ -37236,7 +37236,7 @@
         <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
-        <v>259.1007979700387</v>
+        <v>259.1007979700375</v>
       </c>
       <c r="O34" t="n">
         <v>236.1172769685319</v>
@@ -37245,7 +37245,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155486</v>
+        <v>84.5843077515549</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37306,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M35" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N35" t="n">
-        <v>478.2881520867285</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P35" t="n">
         <v>307.938267249927</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L36" t="n">
-        <v>242.3132784123876</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M36" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O36" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P36" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q36" t="n">
         <v>196.1628128732074</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.0220574005719</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M37" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N37" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O37" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567437</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.4537969567195</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M38" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2881520867285</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P38" t="n">
         <v>307.938267249927</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K39" t="n">
         <v>278.3580710427827</v>
@@ -37637,7 +37637,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P39" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q39" t="n">
         <v>196.1628128732074</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.0220574005719</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N40" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O40" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567437</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.4537969567195</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785869</v>
       </c>
       <c r="M41" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2881520867285</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P41" t="n">
         <v>307.938267249927</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K42" t="n">
         <v>278.3580710427827</v>
@@ -37874,7 +37874,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P42" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q42" t="n">
         <v>196.1628128732074</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.0220574005719</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N43" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O43" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567437</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M44" t="n">
         <v>491.8157444113278</v>
@@ -38029,7 +38029,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P44" t="n">
         <v>307.938267249927</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K45" t="n">
         <v>278.3580710427827</v>
@@ -38102,10 +38102,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M45" t="n">
-        <v>94.82069326434582</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O45" t="n">
         <v>464.7485518834702</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M46" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N46" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O46" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
